--- a/data/CS1/case30/case30_2050.xlsx
+++ b/data/CS1/case30/case30_2050.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_4\case30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS5\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319993B3-FF4D-490F-8DA4-C41D2062A85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86746F6A-2069-461A-A174-78BAE7D30CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -6468,9 +6468,6 @@
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Scenarios"/>
       <sheetName val="Cp, Winter"/>
@@ -13915,7 +13912,7 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD23"/>
+      <selection activeCell="B2" sqref="B2:Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28314,7 +28311,7 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="B2" sqref="B2:Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33364,7 +33361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -33430,7 +33427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F60FAF-AA5F-4713-9706-F31BA42436CB}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:U6"/>
     </sheetView>
   </sheetViews>
